--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">rut</t>
   </si>
@@ -28,46 +28,67 @@
     <t xml:space="preserve">nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">77.279.235-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ODONTOLOGIA RG SPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76.321.457-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geo BPO Chile S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96610790-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INMOBILIARIA SALFA S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96759460-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XNEAR S.A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">77048327-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSMIN SPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76366944-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTO ALEBU Y COMPANIA LIMITADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">76387484-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONSTRUCCIONES P Y C LIMITADA</t>
+    <t xml:space="preserve">direccion_referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comuna_referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region_referencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50000100-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNDACION ARTURO IRARRAZAVAL CORREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISIDORA GOYENECHEA 3356 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS CONDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XIII REGION METROPOLITANA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50000510-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TORREJON CASTRO LUIS Y JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBERTAD 496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVALLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IV REGION COQUIMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50000710-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PONCE PONCE MANUEL E HIJOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINARES 569 TIERRAS BLANCAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COQUIMBO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50001570-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GARCIA MARTINEZ MARIA MILAGRO Y OTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAN AVENIDA 5427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN MIGUEL</t>
   </si>
 </sst>
 </file>
@@ -117,19 +138,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -158,7 +172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -167,12 +181,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -367,93 +385,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/empresas.xlsx
+++ b/empresas.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">rut</t>
   </si>
@@ -50,18 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">XIII REGION METROPOLITANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87657500-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACEVEDO Y CIA. LTDA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">santa adela 10180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maipu</t>
   </si>
 </sst>
 </file>
@@ -295,10 +283,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -337,23 +325,6 @@
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
